--- a/MapDesigns.xlsx
+++ b/MapDesigns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desme\LocalDocument\Repo\Reinforcement-Learning-Malmo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DesmenH_RedSpecter\Source\Repos\Reinforcement-Learning-Malmo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B029899-A42A-4E30-BE87-9B760ADAEFC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4254681E-895E-46A6-BE5C-C2C0D479D6F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{FDBFA2F1-4C98-476F-A615-69E8EC84A2D0}"/>
+    <workbookView xWindow="9705" yWindow="2325" windowWidth="21375" windowHeight="15780" xr2:uid="{FDBFA2F1-4C98-476F-A615-69E8EC84A2D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="6">
   <si>
     <t>Map 1</t>
   </si>
@@ -484,16 +484,16 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="14.6328125" customWidth="1"/>
-    <col min="12" max="34" width="15.1796875" customWidth="1"/>
+    <col min="1" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="34" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="2" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -536,8 +536,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -559,8 +561,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -578,8 +582,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="B5" s="3"/>
+    <row r="5" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -597,11 +603,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+    <row r="6" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
@@ -616,7 +630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="7" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
@@ -628,7 +642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="8" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
@@ -640,29 +654,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="9" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MapDesigns.xlsx
+++ b/MapDesigns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DesmenH_RedSpecter\Source\Repos\Reinforcement-Learning-Malmo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4254681E-895E-46A6-BE5C-C2C0D479D6F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087B134-34D5-4063-B7E8-5E30C67B8FFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="2325" windowWidth="21375" windowHeight="15780" xr2:uid="{FDBFA2F1-4C98-476F-A615-69E8EC84A2D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FDBFA2F1-4C98-476F-A615-69E8EC84A2D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="7">
   <si>
     <t>Map 1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Map 2</t>
+  </si>
+  <si>
+    <t>Map 4</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +131,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -156,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -164,9 +173,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B1C20E-8CE6-49CC-88EA-E7B79E8805AC}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="71" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,12 +530,12 @@
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="M2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
@@ -643,6 +653,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
@@ -655,19 +668,78 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="17" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
